--- a/biology/Médecine/Gabriel_Humelberg/Gabriel_Humelberg.xlsx
+++ b/biology/Médecine/Gabriel_Humelberg/Gabriel_Humelberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Humelberg (ou Hummelberg), né à Ravensbourg, mort le 7 janvier 1544 à Isny im Allgäu, est un médecin, botaniste et humaniste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Humelberg est un frère du prêtre catholique et humaniste Michael Hummelberger (1487-1527) qui était lui-même un ami proche de Beatus Rhenanus. 
 Gabriel Humelberg est étudiant en 1507 à Paris, en 1512 à Montpellier, en 1515 à Bologne (dans un cursus médical). En 1518, il est médecin municipal de Feldkirch. Il s'y marie, et vers 1530 a deux fils et cinq filles. 
@@ -547,12 +561,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antonius Musa, De herba vetonica, et L. Apuleius, De medicaminibus herbarum, Zurich, 1537[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antonius Musa, De herba vetonica, et L. Apuleius, De medicaminibus herbarum, Zurich, 1537.
 Sextus Platonicus, De medicina animalium, bestiarium, pecorum et avium, Zurich, Froschauer, 1539.
 Quintus Serenus Sammonicus, De re medica sive morborum curationibus liber, Zurich, Froschauer, 1540.
-Apicius Cælius, De opsoniis et condimentis sive arte coquinaria libri X, Zurich, Froschauer, 1542[2].</t>
+Apicius Cælius, De opsoniis et condimentis sive arte coquinaria libri X, Zurich, Froschauer, 1542.</t>
         </is>
       </c>
     </row>
